--- a/database/docs/database_planning.xlsx
+++ b/database/docs/database_planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vespe\source\repos\SQLServer_VENV\database\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE900BFD-6269-4E29-8879-3763C38D5F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C2269E-5A57-47A9-9103-F7AA3B7889CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{685576E2-DBA7-48C9-ABB4-EB9E92864E8D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="132">
   <si>
     <t>Server Name</t>
   </si>
@@ -415,6 +415,36 @@
   </si>
   <si>
     <t>DEFAULT 1</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY (entity_id) REFERENCES [CEN].[ENTITIES](entity_id)</t>
+  </si>
+  <si>
+    <t>IT_assets</t>
+  </si>
+  <si>
+    <t>average 2.3 assets per employee</t>
+  </si>
+  <si>
+    <t>asset_id</t>
+  </si>
+  <si>
+    <t>asset_type</t>
+  </si>
+  <si>
+    <t>assigned_to_employee_id</t>
+  </si>
+  <si>
+    <t>warranty_expiry_date</t>
+  </si>
+  <si>
+    <t>subsidiary_id</t>
+  </si>
+  <si>
+    <t>check_in_date</t>
+  </si>
+  <si>
+    <t>check_out_date</t>
   </si>
 </sst>
 </file>
@@ -479,7 +509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -773,6 +803,21 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -798,19 +843,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -836,6 +876,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -848,7 +898,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -863,20 +913,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1211,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858C7C14-F29E-40DC-A1DE-C716A253BF2E}">
-  <dimension ref="B1:J181"/>
+  <dimension ref="B1:J194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1222,150 +1271,150 @@
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="25" customWidth="1"/>
     <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="39.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="16"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="16"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="16"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="11">
         <v>45845</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="16"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="16"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="16"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="15"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="15"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <f>IFERROR(SUM(H13:H18),0)</f>
         <v>94</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="15"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="31" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1374,31 +1423,31 @@
       <c r="D13" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="7">
         <v>4</v>
       </c>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="25" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="2">
         <v>10</v>
       </c>
@@ -1407,34 +1456,34 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="2">
         <v>50</v>
       </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="25" t="s">
         <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="2">
         <v>25</v>
       </c>
@@ -1443,34 +1492,34 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="25" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="2">
         <v>4</v>
       </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30" t="s">
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27" t="s">
         <v>121</v>
       </c>
       <c r="H18" s="4">
@@ -1482,322 +1531,322 @@
     </row>
     <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
-      <c r="J19" s="15"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="15"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="18">
         <v>3</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="48"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="18">
+        <f>IFERROR(SUM(H24:H32),0)</f>
+        <v>146</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="7">
+        <v>4</v>
+      </c>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="2">
+        <v>50</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="2">
+        <v>25</v>
+      </c>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="2">
+        <v>25</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="2">
+        <v>4</v>
+      </c>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="2">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="2">
+        <v>25</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="4">
+        <v>8</v>
+      </c>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="18">
         <f>IFERROR(SUM(#REF!),0)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="15"/>
-    </row>
-    <row r="23" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="45" t="s">
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C37" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D37" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E37" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F37" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G37" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="H23" s="46" t="s">
+      <c r="H37" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="15"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="7">
-        <v>4</v>
-      </c>
-      <c r="I24" s="49"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="2">
-        <v>50</v>
-      </c>
-      <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="2">
-        <v>25</v>
-      </c>
-      <c r="I26" s="18"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="2">
-        <v>25</v>
-      </c>
-      <c r="I27" s="18"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="2">
-        <v>4</v>
-      </c>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="2">
-        <v>4</v>
-      </c>
-      <c r="I29" s="18"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="2">
-        <v>25</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="2">
-        <v>1</v>
-      </c>
-      <c r="I31" s="18"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="2">
-        <v>8</v>
-      </c>
-      <c r="I32" s="18"/>
-    </row>
-    <row r="33" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="15"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="15"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="21">
-        <f>IFERROR(SUM(#REF!),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="15"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="H37" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="42" t="s">
+      <c r="I37" s="30" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1809,9 +1858,9 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="18"/>
+      <c r="G38" s="15"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="18"/>
+      <c r="I38" s="15"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
@@ -1821,9 +1870,9 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="18"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="18"/>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
@@ -1833,9 +1882,9 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="18"/>
+      <c r="G40" s="15"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="18"/>
+      <c r="I40" s="15"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
@@ -1845,9 +1894,9 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="18"/>
+      <c r="G41" s="15"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="18"/>
+      <c r="I41" s="15"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
@@ -1857,88 +1906,88 @@
         <v>16</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="20"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="17"/>
       <c r="H42" s="2">
         <v>8</v>
       </c>
-      <c r="I42" s="18"/>
+      <c r="I42" s="15"/>
     </row>
     <row r="43" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="15"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="13"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="18">
         <v>1000</v>
       </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="15"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="13"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="18">
         <f>IFERROR(SUM(#REF!),0)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="37"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="15"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="13"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="41" t="s">
+      <c r="E47" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="41" t="s">
+      <c r="F47" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="41" t="s">
+      <c r="G47" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="H47" s="41" t="s">
+      <c r="H47" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="42" t="s">
+      <c r="I47" s="30" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1950,11 +1999,11 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="18"/>
+      <c r="G48" s="15"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="18"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I48" s="15"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>45</v>
       </c>
@@ -1962,11 +2011,11 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="18"/>
+      <c r="G49" s="15"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="18"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>46</v>
       </c>
@@ -1974,11 +2023,11 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="18"/>
+      <c r="G50" s="15"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="18"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>47</v>
       </c>
@@ -1986,11 +2035,11 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="18"/>
+      <c r="G51" s="15"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="18"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>48</v>
       </c>
@@ -1998,11 +2047,11 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="18"/>
+      <c r="G52" s="15"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="18"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I52" s="15"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>23</v>
       </c>
@@ -2010,11 +2059,11 @@
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="18"/>
+      <c r="G53" s="15"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="18"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>39</v>
       </c>
@@ -2022,11 +2071,11 @@
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="18"/>
+      <c r="G54" s="15"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="18"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I54" s="15"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
         <v>49</v>
       </c>
@@ -2034,11 +2083,11 @@
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="18"/>
+      <c r="G55" s="15"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="18"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>68</v>
       </c>
@@ -2046,1035 +2095,1049 @@
         <v>16</v>
       </c>
       <c r="D56" s="2"/>
-      <c r="E56" s="17" t="s">
+      <c r="E56" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="17"/>
-      <c r="G56" s="20"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="17"/>
       <c r="H56" s="2">
         <v>8</v>
       </c>
-      <c r="I56" s="18"/>
-    </row>
-    <row r="57" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="25" t="s">
+      <c r="I56" s="15"/>
+    </row>
+    <row r="57" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="15"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="27" t="s">
+      <c r="C58" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="38"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="21">
-        <v>300</v>
-      </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="15"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="27" t="s">
+      <c r="C59" s="18">
+        <v>2300</v>
+      </c>
+      <c r="D59" s="39"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="41"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="18">
         <f>IFERROR(SUM(#REF!),0)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="37"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="15"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="40" t="s">
+      <c r="D60" s="42"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="44"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="C61" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="41" t="s">
+      <c r="D61" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="41" t="s">
+      <c r="E61" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="41" t="s">
+      <c r="F61" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G61" s="41" t="s">
+      <c r="G61" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="H61" s="41" t="s">
+      <c r="H61" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="42" t="s">
+      <c r="I61" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="F62" s="2"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="18"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G62" s="2"/>
+      <c r="H62" s="2">
+        <v>4</v>
+      </c>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="18"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="18"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="18"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="18"/>
+      <c r="I64" s="2"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="18"/>
+      <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="18"/>
+      <c r="I65" s="2"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="18"/>
+      <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="18"/>
+      <c r="I66" s="2"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="18"/>
+      <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="18"/>
+      <c r="I67" s="2"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B68" s="2" t="s">
-        <v>28</v>
+      <c r="B68" s="49" t="s">
+        <v>131</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="18"/>
+      <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="18"/>
+      <c r="I68" s="2"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" s="2" t="s">
-        <v>59</v>
+      <c r="B69" s="49" t="s">
+        <v>130</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="18"/>
+      <c r="G69" s="2"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="18"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B70" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="18"/>
-    </row>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B71" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="18"/>
+      <c r="B71" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="36"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="13"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B72" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="18"/>
+      <c r="B72" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="18">
+        <v>300</v>
+      </c>
+      <c r="D72" s="39"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="13"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F73" s="17"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="2">
-        <v>8</v>
-      </c>
-      <c r="I73" s="18"/>
-    </row>
-    <row r="74" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="33"/>
-      <c r="J75" s="15"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C76" s="21">
-        <v>100</v>
-      </c>
-      <c r="D76" s="34"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="15"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="27" t="s">
+      <c r="B73" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C73" s="18">
         <f>IFERROR(SUM(#REF!),0)</f>
         <v>0</v>
       </c>
-      <c r="D77" s="37"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="15"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="13"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B74" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B75" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="15"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B76" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="15"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B77" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="15"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B78" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="H78" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I78" s="42" t="s">
-        <v>32</v>
-      </c>
+      <c r="B78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="15"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
-      <c r="G79" s="18"/>
+      <c r="G79" s="15"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="18"/>
+      <c r="I79" s="15"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
-      <c r="G80" s="18"/>
+      <c r="G80" s="15"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="18"/>
+      <c r="I80" s="15"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="18"/>
+      <c r="G81" s="15"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="18"/>
+      <c r="I81" s="15"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="18"/>
+      <c r="G82" s="15"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="18"/>
+      <c r="I82" s="15"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="15"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B84" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="15"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B85" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="15"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B86" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="17" t="s">
+      <c r="D86" s="2"/>
+      <c r="E86" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="2">
+      <c r="F86" s="14"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="2">
         <v>8</v>
       </c>
-      <c r="I83" s="18"/>
-    </row>
-    <row r="84" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B85" s="25" t="s">
+      <c r="I86" s="15"/>
+    </row>
+    <row r="87" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B88" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D85" s="31"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="15"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B86" s="27" t="s">
+      <c r="C88" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" s="36"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="13"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B89" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D86" s="34"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="15"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B87" s="27" t="s">
+      <c r="C89" s="18">
+        <v>100</v>
+      </c>
+      <c r="D89" s="39"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="13"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B90" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="21">
+      <c r="C90" s="18">
         <f>IFERROR(SUM(#REF!),0)</f>
         <v>0</v>
       </c>
-      <c r="D87" s="37"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="15"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B88" s="40" t="s">
+      <c r="D90" s="42"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="13"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B91" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="41" t="s">
+      <c r="C91" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="41" t="s">
+      <c r="D91" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E88" s="41" t="s">
+      <c r="E91" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="41" t="s">
+      <c r="F91" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G88" s="41" t="s">
+      <c r="G91" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="H88" s="41" t="s">
+      <c r="H91" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I88" s="42" t="s">
+      <c r="I91" s="30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B89" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="18"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B90" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="18"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B91" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="18"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B92" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
-      <c r="G92" s="18"/>
+      <c r="G92" s="15"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="18"/>
+      <c r="I92" s="15"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
-      <c r="G93" s="18"/>
+      <c r="G93" s="15"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="18"/>
+      <c r="I93" s="15"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="18"/>
+      <c r="G94" s="15"/>
       <c r="H94" s="2"/>
-      <c r="I94" s="18"/>
+      <c r="I94" s="15"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B95" s="2" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
-      <c r="G95" s="18"/>
+      <c r="G95" s="15"/>
       <c r="H95" s="2"/>
-      <c r="I95" s="18"/>
+      <c r="I95" s="15"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B96" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C96" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="18"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B97" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="18"/>
-    </row>
+      <c r="E96" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" s="14"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="2">
+        <v>8</v>
+      </c>
+      <c r="I96" s="15"/>
+    </row>
+    <row r="97" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B98" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="18"/>
+      <c r="B98" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D98" s="36"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="13"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B99" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="18"/>
+      <c r="B99" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D99" s="39"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="13"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B100" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F100" s="17"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="2">
-        <v>8</v>
-      </c>
-      <c r="I100" s="18"/>
-    </row>
-    <row r="101" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B102" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D102" s="31"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="33"/>
-      <c r="J102" s="15"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B103" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C103" s="21">
-        <v>1000</v>
-      </c>
-      <c r="D103" s="34"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="35"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="15"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B104" s="27" t="s">
+      <c r="B100" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C104" s="21">
+      <c r="C100" s="18">
         <f>IFERROR(SUM(#REF!),0)</f>
         <v>0</v>
       </c>
-      <c r="D104" s="37"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="38"/>
-      <c r="G104" s="38"/>
-      <c r="H104" s="38"/>
-      <c r="I104" s="39"/>
-      <c r="J104" s="15"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="13"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B101" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H101" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I101" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B102" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="15"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B103" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="15"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B104" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="15"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B105" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E105" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="H105" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I105" s="42" t="s">
-        <v>32</v>
-      </c>
+      <c r="B105" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="15"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B106" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
-      <c r="G106" s="18"/>
+      <c r="G106" s="15"/>
       <c r="H106" s="2"/>
-      <c r="I106" s="18"/>
+      <c r="I106" s="15"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B107" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
-      <c r="G107" s="18"/>
+      <c r="G107" s="15"/>
       <c r="H107" s="2"/>
-      <c r="I107" s="18"/>
+      <c r="I107" s="15"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B108" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
-      <c r="G108" s="18"/>
+      <c r="G108" s="15"/>
       <c r="H108" s="2"/>
-      <c r="I108" s="18"/>
+      <c r="I108" s="15"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
-      <c r="G109" s="18"/>
+      <c r="G109" s="15"/>
       <c r="H109" s="2"/>
-      <c r="I109" s="18"/>
+      <c r="I109" s="15"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="15"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B111" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="15"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B112" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="15"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B113" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D110" s="2"/>
-      <c r="E110" s="17" t="s">
+      <c r="D113" s="2"/>
+      <c r="E113" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F110" s="17"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="2">
+      <c r="F113" s="14"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="2">
         <v>8</v>
       </c>
-      <c r="I110" s="18"/>
-    </row>
-    <row r="111" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B112" s="25" t="s">
+      <c r="I113" s="15"/>
+    </row>
+    <row r="114" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B115" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C112" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D112" s="31"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="32"/>
-      <c r="G112" s="32"/>
-      <c r="H112" s="32"/>
-      <c r="I112" s="33"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B113" s="27" t="s">
+      <c r="C115" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D115" s="36"/>
+      <c r="E115" s="37"/>
+      <c r="F115" s="37"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="37"/>
+      <c r="I115" s="38"/>
+      <c r="J115" s="13"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B116" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C113" s="21">
-        <v>40000</v>
-      </c>
-      <c r="D113" s="34"/>
-      <c r="E113" s="35"/>
-      <c r="F113" s="35"/>
-      <c r="G113" s="35"/>
-      <c r="H113" s="35"/>
-      <c r="I113" s="36"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B114" s="27" t="s">
+      <c r="C116" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D116" s="39"/>
+      <c r="E116" s="40"/>
+      <c r="F116" s="40"/>
+      <c r="G116" s="40"/>
+      <c r="H116" s="40"/>
+      <c r="I116" s="41"/>
+      <c r="J116" s="13"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B117" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C114" s="21">
+      <c r="C117" s="18">
         <f>IFERROR(SUM(#REF!),0)</f>
         <v>0</v>
       </c>
-      <c r="D114" s="37"/>
-      <c r="E114" s="38"/>
-      <c r="F114" s="38"/>
-      <c r="G114" s="38"/>
-      <c r="H114" s="38"/>
-      <c r="I114" s="39"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B115" s="40" t="s">
+      <c r="D117" s="42"/>
+      <c r="E117" s="43"/>
+      <c r="F117" s="43"/>
+      <c r="G117" s="43"/>
+      <c r="H117" s="43"/>
+      <c r="I117" s="44"/>
+      <c r="J117" s="13"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B118" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="41" t="s">
+      <c r="C118" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="41" t="s">
+      <c r="D118" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E115" s="41" t="s">
+      <c r="E118" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F115" s="41" t="s">
+      <c r="F118" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G115" s="41" t="s">
+      <c r="G118" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="H115" s="41" t="s">
+      <c r="H118" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I115" s="42" t="s">
+      <c r="I118" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B116" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="18"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B117" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="18"/>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B118" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="18"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="2" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
-      <c r="G119" s="18"/>
+      <c r="G119" s="15"/>
       <c r="H119" s="2"/>
-      <c r="I119" s="18"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I119" s="15"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B120" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
-      <c r="G120" s="18"/>
+      <c r="G120" s="15"/>
       <c r="H120" s="2"/>
-      <c r="I120" s="18"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I120" s="15"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B121" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
+      <c r="G121" s="15"/>
       <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B122" s="13" t="s">
-        <v>90</v>
+      <c r="I121" s="15"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B122" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
+      <c r="G122" s="15"/>
       <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I122" s="15"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C123" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B124" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B125" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B126" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B127" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B128" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2">
-        <v>1</v>
-      </c>
-      <c r="I128" s="2">
+      <c r="E123" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F123" s="14"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="2">
+        <v>8</v>
+      </c>
+      <c r="I123" s="15"/>
+    </row>
+    <row r="124" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B125" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D125" s="36"/>
+      <c r="E125" s="37"/>
+      <c r="F125" s="37"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="37"/>
+      <c r="I125" s="38"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B126" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" s="18">
+        <v>40000</v>
+      </c>
+      <c r="D126" s="39"/>
+      <c r="E126" s="40"/>
+      <c r="F126" s="40"/>
+      <c r="G126" s="40"/>
+      <c r="H126" s="40"/>
+      <c r="I126" s="41"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B127" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="18">
+        <f>IFERROR(SUM(#REF!),0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B129" s="13" t="s">
-        <v>88</v>
+      <c r="D127" s="42"/>
+      <c r="E127" s="43"/>
+      <c r="F127" s="43"/>
+      <c r="G127" s="43"/>
+      <c r="H127" s="43"/>
+      <c r="I127" s="44"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B128" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H128" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I128" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B129" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
+      <c r="G129" s="15"/>
       <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B130" s="13" t="s">
-        <v>89</v>
+      <c r="I129" s="15"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B130" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
+      <c r="G130" s="15"/>
       <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B131" s="13" t="s">
-        <v>91</v>
+      <c r="I130" s="15"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B131" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
+      <c r="G131" s="15"/>
       <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I131" s="15"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="2" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
+      <c r="G132" s="15"/>
       <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I132" s="15"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
+      <c r="G133" s="15"/>
       <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I133" s="15"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -3084,9 +3147,9 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B135" s="13" t="s">
-        <v>95</v>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B135" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -3096,94 +3159,87 @@
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B137" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C137" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D137" s="31"/>
-      <c r="E137" s="32"/>
-      <c r="F137" s="32"/>
-      <c r="G137" s="32"/>
-      <c r="H137" s="32"/>
-      <c r="I137" s="33"/>
-      <c r="J137"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B138" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C138" s="21">
-        <v>35000</v>
-      </c>
-      <c r="D138" s="34"/>
-      <c r="E138" s="35"/>
-      <c r="F138" s="35"/>
-      <c r="G138" s="35"/>
-      <c r="H138" s="35"/>
-      <c r="I138" s="36"/>
-      <c r="J138"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B139" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C139" s="21">
-        <f>IFERROR(SUM(#REF!),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D139" s="37"/>
-      <c r="E139" s="38"/>
-      <c r="F139" s="38"/>
-      <c r="G139" s="38"/>
-      <c r="H139" s="38"/>
-      <c r="I139" s="39"/>
-      <c r="J139"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B140" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E140" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="H140" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I140" s="42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B141" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C141" s="2"/>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B136" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B137" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B138" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B139" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B140" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B141" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B142" s="19" t="s">
-        <v>23</v>
+      <c r="H141" s="2">
+        <v>1</v>
+      </c>
+      <c r="I141" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B142" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -3193,9 +3249,9 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="2" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -3205,9 +3261,9 @@
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -3219,7 +3275,7 @@
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -3231,7 +3287,7 @@
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -3243,7 +3299,7 @@
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -3255,7 +3311,7 @@
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -3265,69 +3321,79 @@
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B149" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-    </row>
+    <row r="149" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="150" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B150" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
+      <c r="B150" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D150" s="36"/>
+      <c r="E150" s="37"/>
+      <c r="F150" s="37"/>
+      <c r="G150" s="37"/>
+      <c r="H150" s="37"/>
+      <c r="I150" s="38"/>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B151" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
+      <c r="B151" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" s="18">
+        <v>35000</v>
+      </c>
+      <c r="D151" s="39"/>
+      <c r="E151" s="40"/>
+      <c r="F151" s="40"/>
+      <c r="G151" s="40"/>
+      <c r="H151" s="40"/>
+      <c r="I151" s="41"/>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B152" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
+      <c r="B152" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="18">
+        <f>IFERROR(SUM(#REF!),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D152" s="42"/>
+      <c r="E152" s="43"/>
+      <c r="F152" s="43"/>
+      <c r="G152" s="43"/>
+      <c r="H152" s="43"/>
+      <c r="I152" s="44"/>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B153" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
+      <c r="B153" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H153" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I153" s="30" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B154" s="2" t="s">
-        <v>95</v>
+      <c r="B154" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -3337,79 +3403,69 @@
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
     </row>
-    <row r="155" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B155" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+    </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B156" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C156" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D156" s="31"/>
-      <c r="E156" s="32"/>
-      <c r="F156" s="32"/>
-      <c r="G156" s="32"/>
-      <c r="H156" s="32"/>
-      <c r="I156" s="33"/>
+      <c r="B156" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B157" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C157" s="21">
-        <v>150000</v>
-      </c>
-      <c r="D157" s="34"/>
-      <c r="E157" s="35"/>
-      <c r="F157" s="35"/>
-      <c r="G157" s="35"/>
-      <c r="H157" s="35"/>
-      <c r="I157" s="36"/>
+      <c r="B157" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B158" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C158" s="21">
-        <f>IFERROR(SUM(#REF!),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D158" s="37"/>
-      <c r="E158" s="38"/>
-      <c r="F158" s="38"/>
-      <c r="G158" s="38"/>
-      <c r="H158" s="38"/>
-      <c r="I158" s="39"/>
+      <c r="B158" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B159" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E159" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F159" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="H159" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I159" s="42" t="s">
-        <v>32</v>
-      </c>
+      <c r="B159" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B160" s="19" t="s">
-        <v>88</v>
+      <c r="B160" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -3420,8 +3476,8 @@
       <c r="I160" s="2"/>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B161" s="19" t="s">
-        <v>23</v>
+      <c r="B161" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -3432,8 +3488,8 @@
       <c r="I161" s="2"/>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B162" s="19" t="s">
-        <v>89</v>
+      <c r="B162" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -3444,8 +3500,8 @@
       <c r="I162" s="2"/>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B163" s="19" t="s">
-        <v>102</v>
+      <c r="B163" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -3456,8 +3512,8 @@
       <c r="I163" s="2"/>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B164" s="19" t="s">
-        <v>103</v>
+      <c r="B164" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -3468,8 +3524,8 @@
       <c r="I164" s="2"/>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B165" s="19" t="s">
-        <v>104</v>
+      <c r="B165" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -3479,288 +3535,457 @@
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B166" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+    </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B167" s="25" t="s">
+      <c r="B167" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+    </row>
+    <row r="168" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B169" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C167" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D167" s="31"/>
-      <c r="E167" s="32"/>
-      <c r="F167" s="32"/>
-      <c r="G167" s="32"/>
-      <c r="H167" s="32"/>
-      <c r="I167" s="33"/>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B168" s="27" t="s">
+      <c r="C169" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D169" s="36"/>
+      <c r="E169" s="37"/>
+      <c r="F169" s="37"/>
+      <c r="G169" s="37"/>
+      <c r="H169" s="37"/>
+      <c r="I169" s="38"/>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B170" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C168" s="21">
-        <v>1500000</v>
-      </c>
-      <c r="D168" s="34"/>
-      <c r="E168" s="35"/>
-      <c r="F168" s="35"/>
-      <c r="G168" s="35"/>
-      <c r="H168" s="35"/>
-      <c r="I168" s="36"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B169" s="27" t="s">
+      <c r="C170" s="18">
+        <v>150000</v>
+      </c>
+      <c r="D170" s="39"/>
+      <c r="E170" s="40"/>
+      <c r="F170" s="40"/>
+      <c r="G170" s="40"/>
+      <c r="H170" s="40"/>
+      <c r="I170" s="41"/>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B171" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C169" s="21">
-        <f>IFERROR(SUM(H171:H181),0)</f>
-        <v>258</v>
-      </c>
-      <c r="D169" s="37"/>
-      <c r="E169" s="38"/>
-      <c r="F169" s="38"/>
-      <c r="G169" s="38"/>
-      <c r="H169" s="38"/>
-      <c r="I169" s="39"/>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B170" s="40" t="s">
+      <c r="C171" s="18">
+        <f>IFERROR(SUM(#REF!),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D171" s="42"/>
+      <c r="E171" s="43"/>
+      <c r="F171" s="43"/>
+      <c r="G171" s="43"/>
+      <c r="H171" s="43"/>
+      <c r="I171" s="44"/>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B172" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C170" s="41" t="s">
+      <c r="C172" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D170" s="41" t="s">
+      <c r="D172" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E170" s="41" t="s">
+      <c r="E172" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F170" s="41" t="s">
+      <c r="F172" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G170" s="41" t="s">
+      <c r="G172" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="H170" s="41" t="s">
+      <c r="H172" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I170" s="42" t="s">
+      <c r="I172" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B171" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2">
-        <v>4</v>
-      </c>
-      <c r="I171" s="2"/>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B172" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2">
-        <v>8</v>
-      </c>
-      <c r="I172" s="2"/>
-    </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B173" s="19" t="s">
+      <c r="B173" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B174" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2">
-        <v>4</v>
-      </c>
-      <c r="I173" s="2"/>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B174" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
-      <c r="H174" s="2">
-        <v>4</v>
-      </c>
+      <c r="H174" s="2"/>
       <c r="I174" s="2"/>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B175" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B175" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C175" s="2"/>
       <c r="D175" s="2"/>
-      <c r="E175" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
-      <c r="H175" s="2">
-        <v>4</v>
-      </c>
+      <c r="H175" s="2"/>
       <c r="I175" s="2"/>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B176" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="B176" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C176" s="2"/>
       <c r="D176" s="2"/>
-      <c r="E176" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
-      <c r="H176" s="2">
-        <v>10</v>
-      </c>
+      <c r="H176" s="2"/>
       <c r="I176" s="2"/>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B177" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="B177" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
-      <c r="H177" s="2">
-        <v>3</v>
-      </c>
+      <c r="H177" s="2"/>
       <c r="I177" s="2"/>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B178" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B178" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
-      <c r="H178" s="2">
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+    </row>
+    <row r="179" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B180" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D180" s="36"/>
+      <c r="E180" s="37"/>
+      <c r="F180" s="37"/>
+      <c r="G180" s="37"/>
+      <c r="H180" s="37"/>
+      <c r="I180" s="38"/>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B181" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="D181" s="39"/>
+      <c r="E181" s="40"/>
+      <c r="F181" s="40"/>
+      <c r="G181" s="40"/>
+      <c r="H181" s="40"/>
+      <c r="I181" s="41"/>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B182" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" s="18">
+        <f>IFERROR(SUM(H184:H194),0)</f>
+        <v>258</v>
+      </c>
+      <c r="D182" s="42"/>
+      <c r="E182" s="43"/>
+      <c r="F182" s="43"/>
+      <c r="G182" s="43"/>
+      <c r="H182" s="43"/>
+      <c r="I182" s="44"/>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B183" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E183" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H183" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I183" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B184" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2">
+        <v>4</v>
+      </c>
+      <c r="I184" s="2"/>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B185" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2">
+        <v>8</v>
+      </c>
+      <c r="I185" s="2"/>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B186" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2">
+        <v>4</v>
+      </c>
+      <c r="I186" s="2"/>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B187" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2">
+        <v>4</v>
+      </c>
+      <c r="I187" s="2"/>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B188" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2">
+        <v>4</v>
+      </c>
+      <c r="I188" s="2"/>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B189" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2">
+        <v>10</v>
+      </c>
+      <c r="I189" s="2"/>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B190" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2">
+        <v>3</v>
+      </c>
+      <c r="I190" s="2"/>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B191" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2">
         <v>25</v>
       </c>
-      <c r="I178" s="2" t="s">
+      <c r="I191" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B179" s="19" t="s">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B192" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C192" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2">
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2">
         <v>50</v>
       </c>
-      <c r="I179" s="2"/>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B180" s="19" t="s">
+      <c r="I192" s="2"/>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B193" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C193" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2">
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2">
         <v>130</v>
       </c>
-      <c r="I180" s="2"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B181" s="19" t="s">
+      <c r="I193" s="2"/>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B194" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C194" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2" t="s">
+      <c r="D194" s="2"/>
+      <c r="E194" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2" t="s">
+      <c r="F194" s="2"/>
+      <c r="G194" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H181" s="2">
+      <c r="H194" s="2">
         <v>16</v>
       </c>
-      <c r="I181" s="2"/>
+      <c r="I194" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D112:I114"/>
-    <mergeCell ref="D137:I139"/>
-    <mergeCell ref="D156:I158"/>
-    <mergeCell ref="D167:I169"/>
+  <mergeCells count="13">
+    <mergeCell ref="D125:I127"/>
+    <mergeCell ref="D150:I152"/>
+    <mergeCell ref="D169:I171"/>
+    <mergeCell ref="D180:I182"/>
     <mergeCell ref="D9:I11"/>
     <mergeCell ref="D20:I22"/>
     <mergeCell ref="D34:I36"/>
     <mergeCell ref="D44:I46"/>
+    <mergeCell ref="D71:I73"/>
+    <mergeCell ref="D88:I90"/>
+    <mergeCell ref="D98:I100"/>
+    <mergeCell ref="D115:I117"/>
     <mergeCell ref="D58:I60"/>
-    <mergeCell ref="D75:I77"/>
-    <mergeCell ref="D85:I87"/>
-    <mergeCell ref="D102:I104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/docs/database_planning.xlsx
+++ b/database/docs/database_planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vespe\source\repos\vespertron\SQLServer_VENV\database\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191B0EC3-DE2D-4852-AF6E-102A443812BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCC2B47-1170-4E29-9E9A-9675AB0D93E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{685576E2-DBA7-48C9-ABB4-EB9E92864E8D}"/>
+    <workbookView xWindow="28710" yWindow="3315" windowWidth="18315" windowHeight="15585" xr2:uid="{685576E2-DBA7-48C9-ABB4-EB9E92864E8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Database Planning" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="177">
   <si>
     <t>Server Name</t>
   </si>
@@ -453,9 +453,6 @@
     <t>MONEY</t>
   </si>
   <si>
-    <t>laptopb, mobile, VM</t>
-  </si>
-  <si>
     <t>Avg Bytes</t>
   </si>
   <si>
@@ -468,9 +465,6 @@
     <t>Max Bytes</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>FOREIGN KEY (supplier_id) REFERENCES suppliers(supplier_id)</t>
   </si>
   <si>
@@ -478,6 +472,114 @@
   </si>
   <si>
     <t>NVARCHAR(15)</t>
+  </si>
+  <si>
+    <t>laptop, mobile, VM</t>
+  </si>
+  <si>
+    <t>NVARCHAR(300)</t>
+  </si>
+  <si>
+    <t>NVARCHAR(22)</t>
+  </si>
+  <si>
+    <t>FK → entity table</t>
+  </si>
+  <si>
+    <t>FK → accounts</t>
+  </si>
+  <si>
+    <t>FK → buyers</t>
+  </si>
+  <si>
+    <t>DECIMAL(12,2)</t>
+  </si>
+  <si>
+    <t>FK → products</t>
+  </si>
+  <si>
+    <t>FK → documents</t>
+  </si>
+  <si>
+    <t>Invoice, PO, etc.</t>
+  </si>
+  <si>
+    <t>FK → campaigns</t>
+  </si>
+  <si>
+    <t>FK → entities</t>
+  </si>
+  <si>
+    <t>Owning entity</t>
+  </si>
+  <si>
+    <t>FK → suppliers</t>
+  </si>
+  <si>
+    <t>Supplier reference</t>
+  </si>
+  <si>
+    <t>FK → locations</t>
+  </si>
+  <si>
+    <t>Supplier’s location</t>
+  </si>
+  <si>
+    <t>Buyer of the product/service</t>
+  </si>
+  <si>
+    <t>Buyer’s location</t>
+  </si>
+  <si>
+    <t>FK → bookings</t>
+  </si>
+  <si>
+    <t>Related booking</t>
+  </si>
+  <si>
+    <t>Purchased product</t>
+  </si>
+  <si>
+    <t>Date of purchase</t>
+  </si>
+  <si>
+    <t>Total cost</t>
+  </si>
+  <si>
+    <t>Insert timestamp</t>
+  </si>
+  <si>
+    <t>Created by user</t>
+  </si>
+  <si>
+    <t>Last modified timestamp</t>
+  </si>
+  <si>
+    <t>Last modified by</t>
+  </si>
+  <si>
+    <t>Filename or title</t>
+  </si>
+  <si>
+    <t>Upload timestamp</t>
+  </si>
+  <si>
+    <t>Storage path</t>
+  </si>
+  <si>
+    <t>Date of transaction</t>
+  </si>
+  <si>
+    <t>FK → departments</t>
+  </si>
+  <si>
+    <t>Currency of transaction</t>
+  </si>
+  <si>
+    <t>Link to document</t>
+  </si>
+  <si>
+    <t>Narrative</t>
   </si>
 </sst>
 </file>
@@ -925,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -977,6 +1079,35 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1016,39 +1147,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1385,18 +1484,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858C7C14-F29E-40DC-A1DE-C716A253BF2E}">
   <dimension ref="B1:K209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="J180" sqref="B167:J180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="25" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
@@ -1474,13 +1574,13 @@
       <c r="C9" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="33"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
@@ -1488,47 +1588,47 @@
         <v>21</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="36"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="16">
         <f>IFERROR(SUM($H14:$H19),0)</f>
         <v>448</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="36"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="16">
         <f>IFERROR(SUM($I14:$I19),0)</f>
         <v>95</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1551,10 +1651,10 @@
         <v>113</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J13" s="30" t="s">
         <v>31</v>
@@ -1577,7 +1677,7 @@
         <v>34</v>
       </c>
       <c r="G14" s="27"/>
-      <c r="H14" s="60">
+      <c r="H14" s="45">
         <v>6</v>
       </c>
       <c r="I14" s="7">
@@ -1598,7 +1698,7 @@
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="61">
+      <c r="H15" s="46">
         <v>40</v>
       </c>
       <c r="I15" s="2">
@@ -1621,7 +1721,7 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="61">
+      <c r="H16" s="46">
         <v>200</v>
       </c>
       <c r="I16" s="2">
@@ -1640,7 +1740,7 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="61">
+      <c r="H17" s="46">
         <v>100</v>
       </c>
       <c r="I17" s="2">
@@ -1661,7 +1761,7 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="61">
+      <c r="H18" s="46">
         <v>100</v>
       </c>
       <c r="I18" s="2">
@@ -1682,7 +1782,7 @@
       <c r="G19" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="H19" s="62">
+      <c r="H19" s="47">
         <v>2</v>
       </c>
       <c r="I19" s="4">
@@ -1703,15 +1803,15 @@
       <c r="C21" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="41"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="58"/>
       <c r="K21" s="13"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
@@ -1721,45 +1821,45 @@
       <c r="C22" s="16">
         <v>3</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" s="16">
         <f>IFERROR(SUM($H26:$H36),0)</f>
-        <v>936</v>
-      </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
+        <v>966</v>
+      </c>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="16">
         <f>IFERROR(SUM($I26:$I36),0)</f>
-        <v>255</v>
-      </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
+        <v>270</v>
+      </c>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
       <c r="K24" s="13"/>
     </row>
     <row r="25" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1782,10 +1882,10 @@
         <v>113</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J25" s="30" t="s">
         <v>31</v>
@@ -1809,7 +1909,7 @@
         <v>34</v>
       </c>
       <c r="G26" s="27"/>
-      <c r="H26" s="60">
+      <c r="H26" s="45">
         <v>6</v>
       </c>
       <c r="I26" s="7">
@@ -1830,7 +1930,7 @@
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="61">
+      <c r="H27" s="46">
         <v>200</v>
       </c>
       <c r="I27" s="2">
@@ -1851,7 +1951,7 @@
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
-      <c r="H28" s="61">
+      <c r="H28" s="46">
         <v>100</v>
       </c>
       <c r="I28" s="2">
@@ -1864,13 +1964,13 @@
         <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="61">
+      <c r="H29" s="46">
         <v>400</v>
       </c>
       <c r="I29" s="2">
@@ -1891,7 +1991,7 @@
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="61">
+      <c r="H30" s="46">
         <v>100</v>
       </c>
       <c r="I30" s="2">
@@ -1910,7 +2010,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="61">
+      <c r="H31" s="46">
         <v>4</v>
       </c>
       <c r="I31" s="2">
@@ -1925,14 +2025,18 @@
         <v>56</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="2"/>
+      <c r="H32" s="46">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2">
+        <v>15</v>
+      </c>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
@@ -1948,7 +2052,7 @@
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
-      <c r="H33" s="61">
+      <c r="H33" s="46">
         <v>4</v>
       </c>
       <c r="I33" s="2">
@@ -1971,7 +2075,7 @@
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="61">
+      <c r="H34" s="46">
         <v>100</v>
       </c>
       <c r="I34" s="2">
@@ -1994,7 +2098,7 @@
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="61">
+      <c r="H35" s="46">
         <v>2</v>
       </c>
       <c r="I35" s="2">
@@ -2015,7 +2119,7 @@
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="62">
+      <c r="H36" s="47">
         <v>20</v>
       </c>
       <c r="I36" s="4">
@@ -2033,13 +2137,13 @@
       <c r="C38" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="33"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
       <c r="K38" s="13"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
@@ -2047,102 +2151,102 @@
         <v>21</v>
       </c>
       <c r="C39" s="16"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="36"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="53"/>
       <c r="K39" s="13"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C40" s="16">
         <f>IFERROR(SUM(H43:H47),0)</f>
         <v>136</v>
       </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="36"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="53"/>
       <c r="K40" s="13"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41" s="16">
         <f>IFERROR(SUM(I43:I47),0)</f>
         <v>55</v>
       </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="56"/>
       <c r="K41" s="13"/>
     </row>
     <row r="42" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="45" t="s">
+      <c r="C42" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="E42" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="45" t="s">
+      <c r="F42" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="45" t="s">
+      <c r="G42" s="32" t="s">
         <v>113</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I42" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="J42" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="J42" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" s="49" t="s">
+      <c r="E43" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="48"/>
-      <c r="H43" s="60">
+      <c r="G43" s="35"/>
+      <c r="H43" s="45">
         <v>6</v>
       </c>
-      <c r="I43" s="48">
+      <c r="I43" s="35">
         <v>4</v>
       </c>
-      <c r="J43" s="50"/>
+      <c r="J43" s="37"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="23" t="s">
@@ -2157,7 +2261,7 @@
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="61">
+      <c r="H44" s="46">
         <v>100</v>
       </c>
       <c r="I44" s="2">
@@ -2178,13 +2282,13 @@
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="61">
+      <c r="H45" s="46">
         <v>8</v>
       </c>
       <c r="I45" s="2">
         <v>8</v>
       </c>
-      <c r="J45" s="51" t="s">
+      <c r="J45" s="38" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2199,9 +2303,11 @@
       <c r="E46" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="14"/>
+      <c r="F46" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="G46" s="2"/>
-      <c r="H46" s="61">
+      <c r="H46" s="46">
         <v>2</v>
       </c>
       <c r="I46" s="2">
@@ -2222,7 +2328,7 @@
       </c>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="62">
+      <c r="H47" s="47">
         <v>20</v>
       </c>
       <c r="I47" s="4">
@@ -2238,15 +2344,15 @@
       <c r="C49" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="33"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="50"/>
       <c r="K49" s="13"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
@@ -2256,47 +2362,47 @@
       <c r="C50" s="16">
         <v>1000</v>
       </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="36"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="53"/>
       <c r="K50" s="13"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" s="16">
         <f>IFERROR(SUM($H54:$H62),0)</f>
-        <v>30</v>
-      </c>
-      <c r="D51" s="34"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="36"/>
+        <v>374</v>
+      </c>
+      <c r="D51" s="51"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="53"/>
       <c r="K51" s="13"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C52" s="16">
         <f>IFERROR(SUM($I54:$I62),0)</f>
-        <v>119</v>
-      </c>
-      <c r="D52" s="37"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="39"/>
+        <v>127</v>
+      </c>
+      <c r="D52" s="54"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="56"/>
       <c r="K52" s="13"/>
     </row>
     <row r="53" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2319,39 +2425,39 @@
         <v>113</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I53" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J53" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="C54" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="48" t="s">
+      <c r="D54" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="E54" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="F54" s="49" t="s">
+      <c r="E54" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54">
+      <c r="G54" s="39"/>
+      <c r="H54" s="39">
         <v>10</v>
       </c>
-      <c r="I54" s="48">
+      <c r="I54" s="35">
         <v>4</v>
       </c>
-      <c r="J54" s="50"/>
+      <c r="J54" s="37"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="23" t="s">
@@ -2366,7 +2472,9 @@
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
+      <c r="H55" s="15">
+        <v>100</v>
+      </c>
       <c r="I55" s="2">
         <v>25</v>
       </c>
@@ -2383,7 +2491,9 @@
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
+      <c r="H56" s="15">
+        <v>100</v>
+      </c>
       <c r="I56" s="2">
         <v>25</v>
       </c>
@@ -2402,7 +2512,9 @@
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
+      <c r="H57" s="15">
+        <v>100</v>
+      </c>
       <c r="I57" s="2">
         <v>25</v>
       </c>
@@ -2421,9 +2533,11 @@
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
+      <c r="H58" s="15">
+        <v>20</v>
+      </c>
       <c r="I58" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J58" s="3"/>
     </row>
@@ -2444,7 +2558,9 @@
         <v>34</v>
       </c>
       <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
+      <c r="H59" s="15">
+        <v>6</v>
+      </c>
       <c r="I59" s="2">
         <v>4</v>
       </c>
@@ -2458,7 +2574,7 @@
         <v>11</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E60" s="14" t="s">
         <v>33</v>
@@ -2467,7 +2583,9 @@
         <v>34</v>
       </c>
       <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
+      <c r="H60" s="15">
+        <v>6</v>
+      </c>
       <c r="I60" s="2">
         <v>4</v>
       </c>
@@ -2486,7 +2604,9 @@
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
+      <c r="H61" s="15">
+        <v>12</v>
+      </c>
       <c r="I61" s="2">
         <v>8</v>
       </c>
@@ -2504,8 +2624,8 @@
         <v>33</v>
       </c>
       <c r="F62" s="25"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="59">
+      <c r="G62" s="40"/>
+      <c r="H62" s="44">
         <v>20</v>
       </c>
       <c r="I62" s="4">
@@ -2521,15 +2641,15 @@
       <c r="C64" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="33"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="50"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" s="22" t="s">
@@ -2538,45 +2658,45 @@
       <c r="C65" s="16">
         <v>2300</v>
       </c>
-      <c r="D65" s="34"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="36"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="53"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B66" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C66" s="16">
         <f>IFERROR(SUM($H69:$H76),0)</f>
-        <v>90</v>
-      </c>
-      <c r="D66" s="34"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="36"/>
+        <v>202</v>
+      </c>
+      <c r="D66" s="51"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="53"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B67" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="16">
         <f>IFERROR(SUM($I69:$I76),0)</f>
         <v>77</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="39"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="56"/>
     </row>
     <row r="68" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="28" t="s">
@@ -2598,39 +2718,39 @@
         <v>113</v>
       </c>
       <c r="H68" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I68" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J68" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="47" t="s">
+      <c r="B69" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C69" s="48" t="s">
+      <c r="C69" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="48" t="s">
+      <c r="D69" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="E69" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="F69" s="49" t="s">
+      <c r="E69" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48">
+      <c r="G69" s="35"/>
+      <c r="H69" s="35">
         <v>10</v>
       </c>
-      <c r="I69" s="48">
+      <c r="I69" s="35">
         <v>4</v>
       </c>
-      <c r="J69" s="50"/>
+      <c r="J69" s="37"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" s="23" t="s">
@@ -2645,12 +2765,14 @@
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="H70" s="2">
+        <v>100</v>
+      </c>
       <c r="I70" s="2">
         <v>25</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
@@ -2661,7 +2783,7 @@
         <v>11</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E71" s="14" t="s">
         <v>33</v>
@@ -2670,7 +2792,9 @@
         <v>34</v>
       </c>
       <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="H71" s="2">
+        <v>6</v>
+      </c>
       <c r="I71" s="2">
         <v>4</v>
       </c>
@@ -2693,7 +2817,9 @@
         <v>34</v>
       </c>
       <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
+      <c r="H72" s="2">
+        <v>6</v>
+      </c>
       <c r="I72" s="2">
         <v>4</v>
       </c>
@@ -2785,13 +2911,13 @@
       <c r="C78" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="33"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="50"/>
       <c r="K78" s="13"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
@@ -2801,47 +2927,47 @@
       <c r="C79" s="16">
         <v>300</v>
       </c>
-      <c r="D79" s="34"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="53"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="36"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="52"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="52"/>
+      <c r="J79" s="53"/>
       <c r="K79" s="13"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B80" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C80" s="16">
         <f>IFERROR(SUM($H83:$H94),0)</f>
-        <v>10</v>
-      </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="36"/>
+        <v>1358</v>
+      </c>
+      <c r="D80" s="51"/>
+      <c r="E80" s="52"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="52"/>
+      <c r="I80" s="52"/>
+      <c r="J80" s="53"/>
       <c r="K80" s="13"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B81" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C81" s="16">
         <f>IFERROR(SUM($I83:$I94),0)</f>
-        <v>16</v>
-      </c>
-      <c r="D81" s="37"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="39"/>
+        <v>329</v>
+      </c>
+      <c r="D81" s="54"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="56"/>
       <c r="K81" s="13"/>
     </row>
     <row r="82" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2864,39 +2990,39 @@
         <v>113</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I82" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J82" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="E83" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F83" s="7" t="s">
+      <c r="E83" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F83" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G83" s="52"/>
-      <c r="H83" s="52">
+      <c r="G83" s="39"/>
+      <c r="H83" s="39">
         <v>6</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I83" s="35">
         <v>4</v>
       </c>
-      <c r="J83" s="8"/>
+      <c r="J83" s="37"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B84" s="23" t="s">
@@ -2906,11 +3032,17 @@
         <v>12</v>
       </c>
       <c r="D84" s="2"/>
-      <c r="E84" s="14"/>
+      <c r="E84" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="F84" s="2"/>
       <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="2"/>
+      <c r="H84" s="15">
+        <v>100</v>
+      </c>
+      <c r="I84" s="2">
+        <v>25</v>
+      </c>
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
@@ -2918,14 +3050,18 @@
         <v>55</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="14"/>
       <c r="F85" s="2"/>
       <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="2"/>
+      <c r="H85" s="15">
+        <v>400</v>
+      </c>
+      <c r="I85" s="2">
+        <v>100</v>
+      </c>
       <c r="J85" s="3"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
@@ -2939,8 +3075,12 @@
       <c r="E86" s="14"/>
       <c r="F86" s="2"/>
       <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="2"/>
+      <c r="H86" s="15">
+        <v>100</v>
+      </c>
+      <c r="I86" s="2">
+        <v>25</v>
+      </c>
       <c r="J86" s="3"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
@@ -2958,7 +3098,7 @@
         <v>34</v>
       </c>
       <c r="G87" s="14"/>
-      <c r="H87" s="61">
+      <c r="H87" s="46">
         <v>4</v>
       </c>
       <c r="I87" s="2">
@@ -2972,65 +3112,99 @@
       <c r="B88" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D88" s="2"/>
       <c r="E88" s="14"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="2"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="46">
+        <v>30</v>
+      </c>
+      <c r="I88" s="2">
+        <v>15</v>
+      </c>
       <c r="J88" s="3"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D89" s="2"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="2"/>
+      <c r="E89" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" s="14"/>
+      <c r="H89" s="46">
+        <v>4</v>
+      </c>
+      <c r="I89" s="2">
+        <v>4</v>
+      </c>
       <c r="J89" s="3"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C90" s="2"/>
+      <c r="C90" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D90" s="2"/>
       <c r="E90" s="14"/>
       <c r="F90" s="2"/>
       <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="2"/>
+      <c r="H90" s="15">
+        <v>600</v>
+      </c>
+      <c r="I90" s="2">
+        <v>100</v>
+      </c>
       <c r="J90" s="3"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B91" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C91" s="2"/>
+      <c r="C91" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="D91" s="2"/>
       <c r="E91" s="14"/>
       <c r="F91" s="2"/>
       <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="2"/>
+      <c r="H91" s="15">
+        <v>44</v>
+      </c>
+      <c r="I91" s="2">
+        <v>20</v>
+      </c>
       <c r="J91" s="3"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B92" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C92" s="2"/>
+      <c r="C92" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D92" s="2"/>
       <c r="E92" s="14"/>
       <c r="F92" s="2"/>
       <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="2"/>
+      <c r="H92" s="15">
+        <v>40</v>
+      </c>
+      <c r="I92" s="2">
+        <v>20</v>
+      </c>
       <c r="J92" s="3"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
@@ -3041,15 +3215,21 @@
         <v>11</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E93" s="14"/>
-      <c r="F93" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="2"/>
+      <c r="H93" s="15">
+        <v>10</v>
+      </c>
+      <c r="I93" s="2">
+        <v>4</v>
+      </c>
       <c r="J93" s="3"/>
     </row>
     <row r="94" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3064,8 +3244,10 @@
         <v>33</v>
       </c>
       <c r="F94" s="25"/>
-      <c r="G94" s="55"/>
-      <c r="H94" s="55"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="61">
+        <v>20</v>
+      </c>
       <c r="I94" s="4">
         <v>8</v>
       </c>
@@ -3079,13 +3261,13 @@
       <c r="C96" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="32"/>
-      <c r="H96" s="32"/>
-      <c r="I96" s="32"/>
-      <c r="J96" s="33"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="49"/>
+      <c r="F96" s="49"/>
+      <c r="G96" s="49"/>
+      <c r="H96" s="49"/>
+      <c r="I96" s="49"/>
+      <c r="J96" s="50"/>
       <c r="K96" s="13"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
@@ -3095,44 +3277,44 @@
       <c r="C97" s="16">
         <v>100</v>
       </c>
-      <c r="D97" s="34"/>
-      <c r="E97" s="53"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="36"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="52"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="52"/>
+      <c r="I97" s="52"/>
+      <c r="J97" s="53"/>
       <c r="K97" s="13"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B98" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C98" s="16"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
-      <c r="G98" s="53"/>
-      <c r="H98" s="53"/>
-      <c r="I98" s="53"/>
-      <c r="J98" s="36"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="52"/>
+      <c r="I98" s="52"/>
+      <c r="J98" s="53"/>
       <c r="K98" s="13"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B99" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C99" s="16">
         <f>IFERROR(SUM(#REF!),0)</f>
         <v>0</v>
       </c>
-      <c r="D99" s="37"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="38"/>
-      <c r="G99" s="38"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="38"/>
-      <c r="J99" s="39"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="56"/>
       <c r="K99" s="13"/>
     </row>
     <row r="100" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3155,69 +3337,99 @@
         <v>113</v>
       </c>
       <c r="H100" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I100" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J100" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B101" s="47" t="s">
+      <c r="B101" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C101" s="48"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="48"/>
-      <c r="F101" s="48"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="54">
-        <v>8</v>
-      </c>
-      <c r="I101" s="48">
+      <c r="C101" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E101" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F101" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39">
+        <v>8</v>
+      </c>
+      <c r="I101" s="35">
         <v>4</v>
       </c>
-      <c r="J101" s="50"/>
+      <c r="J101" s="37"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B102" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C102" s="2"/>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
+      <c r="E102" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F102" s="14"/>
       <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="2"/>
+      <c r="H102" s="15">
+        <v>100</v>
+      </c>
+      <c r="I102" s="2">
+        <v>25</v>
+      </c>
       <c r="J102" s="3"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B103" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C103" s="2"/>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
       <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="2"/>
+      <c r="H103" s="15">
+        <v>100</v>
+      </c>
+      <c r="I103" s="2">
+        <v>30</v>
+      </c>
       <c r="J103" s="3"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B104" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C104" s="2"/>
+      <c r="C104" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="2"/>
+      <c r="E104" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="2">
+        <v>20</v>
+      </c>
+      <c r="I104" s="2">
+        <v>8</v>
+      </c>
       <c r="J104" s="3"/>
     </row>
     <row r="105" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3232,8 +3444,10 @@
         <v>33</v>
       </c>
       <c r="F105" s="25"/>
-      <c r="G105" s="55"/>
-      <c r="H105" s="55"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="4">
+        <v>20</v>
+      </c>
       <c r="I105" s="4">
         <v>8</v>
       </c>
@@ -3247,13 +3461,13 @@
       <c r="C107" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D107" s="31"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="32"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="32"/>
-      <c r="I107" s="32"/>
-      <c r="J107" s="33"/>
+      <c r="D107" s="48"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="49"/>
+      <c r="G107" s="49"/>
+      <c r="H107" s="49"/>
+      <c r="I107" s="49"/>
+      <c r="J107" s="50"/>
       <c r="K107" s="13"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
@@ -3263,44 +3477,44 @@
       <c r="C108" s="16">
         <v>2000</v>
       </c>
-      <c r="D108" s="34"/>
-      <c r="E108" s="53"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="53"/>
-      <c r="H108" s="53"/>
-      <c r="I108" s="53"/>
-      <c r="J108" s="36"/>
+      <c r="D108" s="51"/>
+      <c r="E108" s="52"/>
+      <c r="F108" s="52"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="52"/>
+      <c r="I108" s="52"/>
+      <c r="J108" s="53"/>
       <c r="K108" s="13"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B109" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C109" s="16"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="53"/>
-      <c r="F109" s="53"/>
-      <c r="G109" s="53"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="53"/>
-      <c r="J109" s="36"/>
+      <c r="D109" s="51"/>
+      <c r="E109" s="52"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="52"/>
+      <c r="I109" s="52"/>
+      <c r="J109" s="53"/>
       <c r="K109" s="13"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B110" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C110" s="16">
         <f>IFERROR(SUM(#REF!),0)</f>
         <v>0</v>
       </c>
-      <c r="D110" s="37"/>
-      <c r="E110" s="38"/>
-      <c r="F110" s="38"/>
-      <c r="G110" s="38"/>
-      <c r="H110" s="38"/>
-      <c r="I110" s="38"/>
-      <c r="J110" s="39"/>
+      <c r="D110" s="54"/>
+      <c r="E110" s="55"/>
+      <c r="F110" s="55"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="55"/>
+      <c r="I110" s="55"/>
+      <c r="J110" s="56"/>
       <c r="K110" s="13"/>
     </row>
     <row r="111" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3323,160 +3537,246 @@
         <v>113</v>
       </c>
       <c r="H111" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I111" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J111" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B112" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C112" s="48"/>
-      <c r="D112" s="48"/>
-      <c r="E112" s="48"/>
-      <c r="F112" s="48"/>
-      <c r="G112" s="54"/>
-      <c r="H112" s="54">
-        <v>14</v>
-      </c>
-      <c r="I112" s="48">
+      <c r="B112" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E112" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F112" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G112" s="39"/>
+      <c r="H112" s="39">
+        <v>8</v>
+      </c>
+      <c r="I112" s="35">
         <v>4</v>
       </c>
-      <c r="J112" s="50"/>
+      <c r="J112" s="37"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B113" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="2"/>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
+      <c r="E113" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F113" s="14"/>
       <c r="G113" s="15"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="2"/>
+      <c r="H113" s="15">
+        <v>100</v>
+      </c>
+      <c r="I113" s="2">
+        <v>25</v>
+      </c>
       <c r="J113" s="3"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B114" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C114" s="2"/>
+      <c r="C114" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
+      <c r="E114" s="14"/>
       <c r="F114" s="2"/>
       <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="2"/>
+      <c r="H114" s="15">
+        <v>400</v>
+      </c>
+      <c r="I114" s="2">
+        <v>100</v>
+      </c>
       <c r="J114" s="3"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B115" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C115" s="2"/>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
+      <c r="E115" s="14"/>
       <c r="F115" s="2"/>
       <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
-      <c r="I115" s="2"/>
+      <c r="H115" s="15">
+        <v>100</v>
+      </c>
+      <c r="I115" s="2">
+        <v>25</v>
+      </c>
       <c r="J115" s="3"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B116" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C116" s="2"/>
+      <c r="C116" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="3"/>
+      <c r="E116" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G116" s="14"/>
+      <c r="H116" s="46">
+        <v>4</v>
+      </c>
+      <c r="I116" s="2">
+        <v>4</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B117" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C117" s="2"/>
+      <c r="C117" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
-      <c r="I117" s="2"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="46">
+        <v>30</v>
+      </c>
+      <c r="I117" s="2">
+        <v>15</v>
+      </c>
       <c r="J117" s="3"/>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B118" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C118" s="2"/>
+      <c r="C118" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="2"/>
+      <c r="E118" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G118" s="14"/>
+      <c r="H118" s="46">
+        <v>4</v>
+      </c>
+      <c r="I118" s="2">
+        <v>4</v>
+      </c>
       <c r="J118" s="3"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B119" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C119" s="2"/>
+      <c r="C119" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
+      <c r="E119" s="14"/>
       <c r="F119" s="2"/>
       <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="2"/>
+      <c r="H119" s="15">
+        <v>600</v>
+      </c>
+      <c r="I119" s="2">
+        <v>100</v>
+      </c>
       <c r="J119" s="3"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B120" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C120" s="2"/>
+      <c r="C120" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
+      <c r="E120" s="14"/>
       <c r="F120" s="2"/>
       <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="2"/>
+      <c r="H120" s="15">
+        <v>44</v>
+      </c>
+      <c r="I120" s="2">
+        <v>20</v>
+      </c>
       <c r="J120" s="3"/>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B121" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C121" s="2"/>
+      <c r="C121" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
+      <c r="E121" s="14"/>
       <c r="F121" s="2"/>
       <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
-      <c r="I121" s="2"/>
+      <c r="H121" s="15">
+        <v>40</v>
+      </c>
+      <c r="I121" s="2">
+        <v>20</v>
+      </c>
       <c r="J121" s="3"/>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B122" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
+      <c r="C122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-      <c r="I122" s="2"/>
+      <c r="H122" s="15">
+        <v>10</v>
+      </c>
+      <c r="I122" s="2">
+        <v>4</v>
+      </c>
       <c r="J122" s="3"/>
     </row>
     <row r="123" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3491,8 +3791,10 @@
         <v>33</v>
       </c>
       <c r="F123" s="25"/>
-      <c r="G123" s="55"/>
-      <c r="H123" s="55"/>
+      <c r="G123" s="40"/>
+      <c r="H123" s="61">
+        <v>20</v>
+      </c>
       <c r="I123" s="4">
         <v>8</v>
       </c>
@@ -3506,13 +3808,13 @@
       <c r="C125" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D125" s="31"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="32"/>
-      <c r="G125" s="32"/>
-      <c r="H125" s="32"/>
-      <c r="I125" s="32"/>
-      <c r="J125" s="33"/>
+      <c r="D125" s="48"/>
+      <c r="E125" s="49"/>
+      <c r="F125" s="49"/>
+      <c r="G125" s="49"/>
+      <c r="H125" s="49"/>
+      <c r="I125" s="49"/>
+      <c r="J125" s="50"/>
       <c r="K125" s="13"/>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.3">
@@ -3522,44 +3824,44 @@
       <c r="C126" s="16">
         <v>1000</v>
       </c>
-      <c r="D126" s="34"/>
-      <c r="E126" s="53"/>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="36"/>
+      <c r="D126" s="51"/>
+      <c r="E126" s="52"/>
+      <c r="F126" s="52"/>
+      <c r="G126" s="52"/>
+      <c r="H126" s="52"/>
+      <c r="I126" s="52"/>
+      <c r="J126" s="53"/>
       <c r="K126" s="13"/>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B127" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C127" s="16"/>
-      <c r="D127" s="34"/>
-      <c r="E127" s="53"/>
-      <c r="F127" s="53"/>
-      <c r="G127" s="53"/>
-      <c r="H127" s="53"/>
-      <c r="I127" s="53"/>
-      <c r="J127" s="36"/>
+      <c r="D127" s="51"/>
+      <c r="E127" s="52"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="52"/>
+      <c r="H127" s="52"/>
+      <c r="I127" s="52"/>
+      <c r="J127" s="53"/>
       <c r="K127" s="13"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B128" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C128" s="16">
         <f>IFERROR(SUM(#REF!),0)</f>
         <v>0</v>
       </c>
-      <c r="D128" s="37"/>
-      <c r="E128" s="38"/>
-      <c r="F128" s="38"/>
-      <c r="G128" s="38"/>
-      <c r="H128" s="38"/>
-      <c r="I128" s="38"/>
-      <c r="J128" s="39"/>
+      <c r="D128" s="54"/>
+      <c r="E128" s="55"/>
+      <c r="F128" s="55"/>
+      <c r="G128" s="55"/>
+      <c r="H128" s="55"/>
+      <c r="I128" s="55"/>
+      <c r="J128" s="56"/>
       <c r="K128" s="13"/>
     </row>
     <row r="129" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3582,69 +3884,99 @@
         <v>113</v>
       </c>
       <c r="H129" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I129" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J129" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B130" s="47" t="s">
+      <c r="B130" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C130" s="48"/>
-      <c r="D130" s="48"/>
-      <c r="E130" s="48"/>
-      <c r="F130" s="48"/>
-      <c r="G130" s="54"/>
-      <c r="H130" s="54">
-        <v>12</v>
-      </c>
-      <c r="I130" s="48">
+      <c r="C130" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E130" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F130" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G130" s="39"/>
+      <c r="H130" s="39">
+        <v>8</v>
+      </c>
+      <c r="I130" s="35">
         <v>4</v>
       </c>
-      <c r="J130" s="50"/>
+      <c r="J130" s="37"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B131" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C131" s="2"/>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
+      <c r="E131" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F131" s="14"/>
       <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
-      <c r="I131" s="2"/>
+      <c r="H131" s="15">
+        <v>100</v>
+      </c>
+      <c r="I131" s="2">
+        <v>25</v>
+      </c>
       <c r="J131" s="3"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B132" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C132" s="2"/>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
       <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="2"/>
+      <c r="H132" s="15">
+        <v>100</v>
+      </c>
+      <c r="I132" s="2">
+        <v>30</v>
+      </c>
       <c r="J132" s="3"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B133" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C133" s="2"/>
+      <c r="C133" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="2"/>
+      <c r="E133" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="2">
+        <v>20</v>
+      </c>
+      <c r="I133" s="2">
+        <v>8</v>
+      </c>
       <c r="J133" s="3"/>
     </row>
     <row r="134" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3659,8 +3991,10 @@
         <v>33</v>
       </c>
       <c r="F134" s="25"/>
-      <c r="G134" s="55"/>
-      <c r="H134" s="55"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="4">
+        <v>20</v>
+      </c>
       <c r="I134" s="4">
         <v>8</v>
       </c>
@@ -3674,13 +4008,13 @@
       <c r="C136" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D136" s="31"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="32"/>
-      <c r="G136" s="32"/>
-      <c r="H136" s="32"/>
-      <c r="I136" s="32"/>
-      <c r="J136" s="33"/>
+      <c r="D136" s="48"/>
+      <c r="E136" s="49"/>
+      <c r="F136" s="49"/>
+      <c r="G136" s="49"/>
+      <c r="H136" s="49"/>
+      <c r="I136" s="49"/>
+      <c r="J136" s="50"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B137" s="22" t="s">
@@ -3689,226 +4023,338 @@
       <c r="C137" s="16">
         <v>40000</v>
       </c>
-      <c r="D137" s="34"/>
-      <c r="E137" s="53"/>
-      <c r="F137" s="53"/>
-      <c r="G137" s="53"/>
-      <c r="H137" s="53"/>
-      <c r="I137" s="53"/>
-      <c r="J137" s="36"/>
+      <c r="D137" s="51"/>
+      <c r="E137" s="52"/>
+      <c r="F137" s="52"/>
+      <c r="G137" s="52"/>
+      <c r="H137" s="52"/>
+      <c r="I137" s="52"/>
+      <c r="J137" s="53"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B138" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C138" s="16"/>
-      <c r="D138" s="34"/>
-      <c r="E138" s="53"/>
-      <c r="F138" s="53"/>
-      <c r="G138" s="53"/>
-      <c r="H138" s="53"/>
-      <c r="I138" s="53"/>
-      <c r="J138" s="36"/>
+      <c r="D138" s="51"/>
+      <c r="E138" s="52"/>
+      <c r="F138" s="52"/>
+      <c r="G138" s="52"/>
+      <c r="H138" s="52"/>
+      <c r="I138" s="52"/>
+      <c r="J138" s="53"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B139" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C139" s="16">
         <f>IFERROR(SUM(#REF!),0)</f>
         <v>0</v>
       </c>
-      <c r="D139" s="37"/>
-      <c r="E139" s="38"/>
-      <c r="F139" s="38"/>
-      <c r="G139" s="38"/>
-      <c r="H139" s="38"/>
-      <c r="I139" s="38"/>
-      <c r="J139" s="39"/>
+      <c r="D139" s="54"/>
+      <c r="E139" s="55"/>
+      <c r="F139" s="55"/>
+      <c r="G139" s="55"/>
+      <c r="H139" s="55"/>
+      <c r="I139" s="55"/>
+      <c r="J139" s="56"/>
     </row>
     <row r="140" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="28" t="s">
+      <c r="B140" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C140" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" s="29" t="s">
+      <c r="C140" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E140" s="29" t="s">
+      <c r="E140" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F140" s="29" t="s">
+      <c r="F140" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G140" s="29" t="s">
+      <c r="G140" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="H140" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="I140" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="J140" s="30" t="s">
+      <c r="H140" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="I140" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="J140" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B141" s="47" t="s">
+      <c r="B141" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C141" s="48"/>
-      <c r="D141" s="48"/>
-      <c r="E141" s="48"/>
-      <c r="F141" s="48"/>
-      <c r="G141" s="54"/>
-      <c r="H141" s="54"/>
-      <c r="I141" s="48"/>
-      <c r="J141" s="50"/>
+      <c r="C141" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E141" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F141" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G141" s="35"/>
+      <c r="H141" s="35">
+        <v>8</v>
+      </c>
+      <c r="I141" s="35">
+        <v>4</v>
+      </c>
+      <c r="J141" s="37"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B142" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C142" s="2"/>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="15"/>
-      <c r="H142" s="15"/>
-      <c r="I142" s="2"/>
+      <c r="E142" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2">
+        <v>100</v>
+      </c>
+      <c r="I142" s="2">
+        <v>25</v>
+      </c>
       <c r="J142" s="3"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B143" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C143" s="2"/>
+      <c r="C143" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
+      <c r="E143" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F143" s="2"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2">
+        <v>8</v>
+      </c>
+      <c r="I143" s="2">
+        <v>8</v>
+      </c>
       <c r="J143" s="3"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B144" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15"/>
-      <c r="I144" s="2"/>
+      <c r="C144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2">
+        <v>8</v>
+      </c>
+      <c r="I144" s="2">
+        <v>4</v>
+      </c>
       <c r="J144" s="3"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B145" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15"/>
-      <c r="I145" s="2"/>
+      <c r="C145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2">
+        <v>8</v>
+      </c>
+      <c r="I145" s="2">
+        <v>4</v>
+      </c>
       <c r="J145" s="3"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B146" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
+      <c r="C146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
+      <c r="H146" s="2">
+        <v>8</v>
+      </c>
+      <c r="I146" s="2">
+        <v>4</v>
+      </c>
       <c r="J146" s="3"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B147" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C147" s="2"/>
+      <c r="C147" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
+      <c r="H147" s="2">
+        <v>200</v>
+      </c>
+      <c r="I147" s="2">
+        <v>50</v>
+      </c>
       <c r="J147" s="3"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B148" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C148" s="2"/>
+      <c r="C148" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
+      <c r="E148" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
+      <c r="H148" s="2">
+        <v>9</v>
+      </c>
+      <c r="I148" s="2">
+        <v>6</v>
+      </c>
       <c r="J148" s="3"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B149" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
+      <c r="C149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
+      <c r="H149" s="2">
+        <v>8</v>
+      </c>
+      <c r="I149" s="2">
+        <v>4</v>
+      </c>
       <c r="J149" s="3"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C150" s="2"/>
+      <c r="C150" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
+      <c r="E150" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
+      <c r="H150" s="2">
+        <v>40</v>
+      </c>
+      <c r="I150" s="2">
+        <v>15</v>
+      </c>
       <c r="J150" s="3"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C151" s="2"/>
+      <c r="C151" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
+      <c r="H151" s="2">
+        <v>8</v>
+      </c>
+      <c r="I151" s="2">
+        <v>4</v>
+      </c>
       <c r="J151" s="3"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B152" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C152" s="2"/>
+      <c r="C152" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
+      <c r="H152" s="2">
+        <v>8</v>
+      </c>
+      <c r="I152" s="2">
+        <v>8</v>
+      </c>
       <c r="J152" s="3"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.3">
@@ -3919,106 +4365,158 @@
         <v>30</v>
       </c>
       <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
+      <c r="E153" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
+      <c r="H153" s="2">
+        <v>1</v>
+      </c>
       <c r="I153" s="2">
         <v>1</v>
       </c>
-      <c r="J153" s="3">
-        <v>0</v>
-      </c>
+      <c r="J153" s="3"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B154" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
+      <c r="C154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
+      <c r="H154" s="2">
+        <v>8</v>
+      </c>
+      <c r="I154" s="2">
+        <v>4</v>
+      </c>
       <c r="J154" s="3"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B155" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C155" s="2"/>
+      <c r="C155" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
+      <c r="H155" s="2">
+        <v>40</v>
+      </c>
+      <c r="I155" s="2">
+        <v>15</v>
+      </c>
       <c r="J155" s="3"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B156" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
+      <c r="C156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
+      <c r="H156" s="2">
+        <v>8</v>
+      </c>
+      <c r="I156" s="2">
+        <v>4</v>
+      </c>
       <c r="J156" s="3"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B157" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C157" s="2"/>
+      <c r="C157" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
+      <c r="E157" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
+      <c r="H157" s="2">
+        <v>8</v>
+      </c>
+      <c r="I157" s="2">
+        <v>8</v>
+      </c>
       <c r="J157" s="3"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B158" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C158" s="2"/>
+      <c r="C158" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
+      <c r="E158" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
+      <c r="H158" s="2">
+        <v>100</v>
+      </c>
+      <c r="I158" s="2">
+        <v>20</v>
+      </c>
       <c r="J158" s="3"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B159" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C159" s="2"/>
+      <c r="C159" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
+      <c r="H159" s="2">
+        <v>8</v>
+      </c>
+      <c r="I159" s="2">
+        <v>8</v>
+      </c>
       <c r="J159" s="3"/>
     </row>
     <row r="160" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B160" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C160" s="4"/>
+      <c r="C160" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
-      <c r="H160" s="4"/>
-      <c r="I160" s="4"/>
+      <c r="H160" s="4">
+        <v>100</v>
+      </c>
+      <c r="I160" s="4">
+        <v>20</v>
+      </c>
       <c r="J160" s="5"/>
     </row>
     <row r="161" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4029,13 +4527,13 @@
       <c r="C162" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D162" s="31"/>
-      <c r="E162" s="32"/>
-      <c r="F162" s="32"/>
-      <c r="G162" s="32"/>
-      <c r="H162" s="32"/>
-      <c r="I162" s="32"/>
-      <c r="J162" s="33"/>
+      <c r="D162" s="48"/>
+      <c r="E162" s="49"/>
+      <c r="F162" s="49"/>
+      <c r="G162" s="49"/>
+      <c r="H162" s="49"/>
+      <c r="I162" s="49"/>
+      <c r="J162" s="50"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B163" s="22" t="s">
@@ -4044,252 +4542,412 @@
       <c r="C163" s="16">
         <v>35000</v>
       </c>
-      <c r="D163" s="34"/>
-      <c r="E163" s="53"/>
-      <c r="F163" s="53"/>
-      <c r="G163" s="53"/>
-      <c r="H163" s="53"/>
-      <c r="I163" s="53"/>
-      <c r="J163" s="36"/>
+      <c r="D163" s="51"/>
+      <c r="E163" s="52"/>
+      <c r="F163" s="52"/>
+      <c r="G163" s="52"/>
+      <c r="H163" s="52"/>
+      <c r="I163" s="52"/>
+      <c r="J163" s="53"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B164" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C164" s="16"/>
-      <c r="D164" s="34"/>
-      <c r="E164" s="53"/>
-      <c r="F164" s="53"/>
-      <c r="G164" s="53"/>
-      <c r="H164" s="53"/>
-      <c r="I164" s="53"/>
-      <c r="J164" s="36"/>
+      <c r="D164" s="51"/>
+      <c r="E164" s="52"/>
+      <c r="F164" s="52"/>
+      <c r="G164" s="52"/>
+      <c r="H164" s="52"/>
+      <c r="I164" s="52"/>
+      <c r="J164" s="53"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B165" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C165" s="16">
         <f>IFERROR(SUM(#REF!),0)</f>
         <v>0</v>
       </c>
-      <c r="D165" s="37"/>
-      <c r="E165" s="38"/>
-      <c r="F165" s="38"/>
-      <c r="G165" s="38"/>
-      <c r="H165" s="38"/>
-      <c r="I165" s="38"/>
-      <c r="J165" s="39"/>
+      <c r="D165" s="54"/>
+      <c r="E165" s="55"/>
+      <c r="F165" s="55"/>
+      <c r="G165" s="55"/>
+      <c r="H165" s="55"/>
+      <c r="I165" s="55"/>
+      <c r="J165" s="56"/>
     </row>
     <row r="166" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="28" t="s">
+      <c r="B166" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C166" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" s="29" t="s">
+      <c r="C166" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E166" s="29" t="s">
+      <c r="E166" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F166" s="29" t="s">
+      <c r="F166" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G166" s="29" t="s">
+      <c r="G166" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="H166" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="I166" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="J166" s="30" t="s">
+      <c r="H166" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="I166" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="J166" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B167" s="56" t="s">
+      <c r="B167" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="C167" s="48"/>
-      <c r="D167" s="48"/>
-      <c r="E167" s="48"/>
-      <c r="F167" s="48"/>
-      <c r="G167" s="48"/>
-      <c r="H167" s="48"/>
-      <c r="I167" s="48"/>
-      <c r="J167" s="50"/>
+      <c r="C167" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E167" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F167" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G167" s="35"/>
+      <c r="H167" s="35">
+        <v>8</v>
+      </c>
+      <c r="I167" s="35">
+        <v>4</v>
+      </c>
+      <c r="J167" s="37"/>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B168" s="57" t="s">
+      <c r="B168" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
+      <c r="C168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H168" s="2">
+        <v>8</v>
+      </c>
+      <c r="I168" s="2">
+        <v>4</v>
+      </c>
       <c r="J168" s="3"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B169" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
+      <c r="C169" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H169" s="2">
+        <v>8</v>
+      </c>
+      <c r="I169" s="2">
+        <v>4</v>
+      </c>
       <c r="J169" s="3"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B170" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
+      <c r="C170" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
+      <c r="G170" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H170" s="2">
+        <v>8</v>
+      </c>
+      <c r="I170" s="2">
+        <v>4</v>
+      </c>
       <c r="J170" s="3"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B171" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
+      <c r="C171" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
+      <c r="G171" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H171" s="2">
+        <v>8</v>
+      </c>
+      <c r="I171" s="2">
+        <v>4</v>
+      </c>
       <c r="J171" s="3"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B172" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
+      <c r="C172" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
+      <c r="G172" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H172" s="2">
+        <v>8</v>
+      </c>
+      <c r="I172" s="2">
+        <v>4</v>
+      </c>
       <c r="J172" s="3"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B173" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
+      <c r="C173" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
+      <c r="G173" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H173" s="2">
+        <v>8</v>
+      </c>
+      <c r="I173" s="2">
+        <v>4</v>
+      </c>
       <c r="J173" s="3"/>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B174" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
+      <c r="C174" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
+      <c r="G174" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H174" s="2">
+        <v>8</v>
+      </c>
+      <c r="I174" s="2">
+        <v>4</v>
+      </c>
       <c r="J174" s="3"/>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B175" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C175" s="2"/>
+      <c r="C175" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
+      <c r="E175" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
+      <c r="G175" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H175" s="2">
+        <v>8</v>
+      </c>
+      <c r="I175" s="2">
+        <v>8</v>
+      </c>
       <c r="J175" s="3"/>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B176" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C176" s="2"/>
+      <c r="C176" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
+      <c r="E176" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="2"/>
+      <c r="G176" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H176" s="2">
+        <v>9</v>
+      </c>
+      <c r="I176" s="2">
+        <v>6</v>
+      </c>
       <c r="J176" s="3"/>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B177" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C177" s="2"/>
+      <c r="C177" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
+      <c r="E177" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
+      <c r="G177" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H177" s="2">
+        <v>8</v>
+      </c>
+      <c r="I177" s="2">
+        <v>8</v>
+      </c>
       <c r="J177" s="3"/>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B178" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C178" s="2"/>
+      <c r="C178" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
+      <c r="E178" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
-      <c r="I178" s="2"/>
+      <c r="G178" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H178" s="2">
+        <v>100</v>
+      </c>
+      <c r="I178" s="2">
+        <v>20</v>
+      </c>
       <c r="J178" s="3"/>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B179" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C179" s="2"/>
+      <c r="C179" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
+      <c r="E179" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
-      <c r="I179" s="2"/>
+      <c r="G179" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H179" s="2">
+        <v>8</v>
+      </c>
+      <c r="I179" s="2">
+        <v>8</v>
+      </c>
       <c r="J179" s="3"/>
     </row>
     <row r="180" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B180" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C180" s="4"/>
+      <c r="C180" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
+      <c r="E180" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
-      <c r="H180" s="4"/>
-      <c r="I180" s="4"/>
+      <c r="G180" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H180" s="4">
+        <v>100</v>
+      </c>
+      <c r="I180" s="4">
+        <v>20</v>
+      </c>
       <c r="J180" s="5"/>
     </row>
     <row r="181" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4300,13 +4958,13 @@
       <c r="C182" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D182" s="31"/>
-      <c r="E182" s="32"/>
-      <c r="F182" s="32"/>
-      <c r="G182" s="32"/>
-      <c r="H182" s="32"/>
-      <c r="I182" s="32"/>
-      <c r="J182" s="33"/>
+      <c r="D182" s="48"/>
+      <c r="E182" s="49"/>
+      <c r="F182" s="49"/>
+      <c r="G182" s="49"/>
+      <c r="H182" s="49"/>
+      <c r="I182" s="49"/>
+      <c r="J182" s="50"/>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B183" s="22" t="s">
@@ -4315,148 +4973,214 @@
       <c r="C183" s="16">
         <v>150000</v>
       </c>
-      <c r="D183" s="34"/>
-      <c r="E183" s="53"/>
-      <c r="F183" s="53"/>
-      <c r="G183" s="53"/>
-      <c r="H183" s="53"/>
-      <c r="I183" s="53"/>
-      <c r="J183" s="36"/>
+      <c r="D183" s="51"/>
+      <c r="E183" s="52"/>
+      <c r="F183" s="52"/>
+      <c r="G183" s="52"/>
+      <c r="H183" s="52"/>
+      <c r="I183" s="52"/>
+      <c r="J183" s="53"/>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B184" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C184" s="16"/>
-      <c r="D184" s="34"/>
-      <c r="E184" s="53"/>
-      <c r="F184" s="53"/>
-      <c r="G184" s="53"/>
-      <c r="H184" s="53"/>
-      <c r="I184" s="53"/>
-      <c r="J184" s="36"/>
+      <c r="D184" s="51"/>
+      <c r="E184" s="52"/>
+      <c r="F184" s="52"/>
+      <c r="G184" s="52"/>
+      <c r="H184" s="52"/>
+      <c r="I184" s="52"/>
+      <c r="J184" s="53"/>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B185" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C185" s="16">
         <f>IFERROR(SUM(#REF!),0)</f>
         <v>0</v>
       </c>
-      <c r="D185" s="37"/>
-      <c r="E185" s="38"/>
-      <c r="F185" s="38"/>
-      <c r="G185" s="38"/>
-      <c r="H185" s="38"/>
-      <c r="I185" s="38"/>
-      <c r="J185" s="39"/>
+      <c r="D185" s="54"/>
+      <c r="E185" s="55"/>
+      <c r="F185" s="55"/>
+      <c r="G185" s="55"/>
+      <c r="H185" s="55"/>
+      <c r="I185" s="55"/>
+      <c r="J185" s="56"/>
     </row>
     <row r="186" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B186" s="28" t="s">
+      <c r="B186" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C186" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" s="29" t="s">
+      <c r="C186" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E186" s="29" t="s">
+      <c r="E186" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F186" s="29" t="s">
+      <c r="F186" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G186" s="29" t="s">
+      <c r="G186" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="H186" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="I186" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="J186" s="30" t="s">
+      <c r="H186" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="I186" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="J186" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B187" s="56" t="s">
+      <c r="B187" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C187" s="48"/>
-      <c r="D187" s="48"/>
-      <c r="E187" s="48"/>
-      <c r="F187" s="48"/>
-      <c r="G187" s="48"/>
-      <c r="H187" s="48"/>
-      <c r="I187" s="48"/>
-      <c r="J187" s="50"/>
+      <c r="C187" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E187" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F187" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G187" s="35"/>
+      <c r="H187" s="35">
+        <v>8</v>
+      </c>
+      <c r="I187" s="35">
+        <v>4</v>
+      </c>
+      <c r="J187" s="37"/>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B188" s="57" t="s">
+      <c r="B188" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="2"/>
+      <c r="C188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H188" s="2">
+        <v>8</v>
+      </c>
+      <c r="I188" s="2">
+        <v>4</v>
+      </c>
       <c r="J188" s="3"/>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B189" s="57" t="s">
+      <c r="B189" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C189" s="2"/>
+      <c r="C189" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
+      <c r="E189" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
-      <c r="I189" s="2"/>
+      <c r="G189" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H189" s="2">
+        <v>40</v>
+      </c>
+      <c r="I189" s="2">
+        <v>15</v>
+      </c>
       <c r="J189" s="3"/>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B190" s="57" t="s">
+      <c r="B190" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C190" s="2"/>
+      <c r="C190" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
+      <c r="E190" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
-      <c r="I190" s="2"/>
+      <c r="G190" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H190" s="2">
+        <v>200</v>
+      </c>
+      <c r="I190" s="2">
+        <v>50</v>
+      </c>
       <c r="J190" s="3"/>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B191" s="57" t="s">
+      <c r="B191" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C191" s="2"/>
+      <c r="C191" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
+      <c r="E191" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="2"/>
+      <c r="G191" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H191" s="2">
+        <v>8</v>
+      </c>
+      <c r="I191" s="2">
+        <v>8</v>
+      </c>
       <c r="J191" s="3"/>
     </row>
     <row r="192" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="58" t="s">
+      <c r="B192" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C192" s="4"/>
+      <c r="C192" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="D192" s="4"/>
-      <c r="E192" s="4"/>
+      <c r="E192" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F192" s="4"/>
-      <c r="G192" s="4"/>
-      <c r="H192" s="4"/>
-      <c r="I192" s="4"/>
+      <c r="G192" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H192" s="4">
+        <v>510</v>
+      </c>
+      <c r="I192" s="4">
+        <v>130</v>
+      </c>
       <c r="J192" s="5"/>
     </row>
     <row r="193" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4467,13 +5191,13 @@
       <c r="C194" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D194" s="31"/>
-      <c r="E194" s="32"/>
-      <c r="F194" s="32"/>
-      <c r="G194" s="32"/>
-      <c r="H194" s="32"/>
-      <c r="I194" s="32"/>
-      <c r="J194" s="33"/>
+      <c r="D194" s="48"/>
+      <c r="E194" s="49"/>
+      <c r="F194" s="49"/>
+      <c r="G194" s="49"/>
+      <c r="H194" s="49"/>
+      <c r="I194" s="49"/>
+      <c r="J194" s="50"/>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B195" s="22" t="s">
@@ -4482,97 +5206,99 @@
       <c r="C195" s="16">
         <v>1500000</v>
       </c>
-      <c r="D195" s="34"/>
-      <c r="E195" s="53"/>
-      <c r="F195" s="53"/>
-      <c r="G195" s="53"/>
-      <c r="H195" s="53"/>
-      <c r="I195" s="53"/>
-      <c r="J195" s="36"/>
+      <c r="D195" s="51"/>
+      <c r="E195" s="52"/>
+      <c r="F195" s="52"/>
+      <c r="G195" s="52"/>
+      <c r="H195" s="52"/>
+      <c r="I195" s="52"/>
+      <c r="J195" s="53"/>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B196" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C196" s="16"/>
-      <c r="D196" s="34"/>
-      <c r="E196" s="53"/>
-      <c r="F196" s="53"/>
-      <c r="G196" s="53"/>
-      <c r="H196" s="53"/>
-      <c r="I196" s="53"/>
-      <c r="J196" s="36"/>
+      <c r="D196" s="51"/>
+      <c r="E196" s="52"/>
+      <c r="F196" s="52"/>
+      <c r="G196" s="52"/>
+      <c r="H196" s="52"/>
+      <c r="I196" s="52"/>
+      <c r="J196" s="53"/>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B197" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C197" s="16">
         <f>IFERROR(SUM(I199:I209),0)</f>
-        <v>258</v>
-      </c>
-      <c r="D197" s="37"/>
-      <c r="E197" s="38"/>
-      <c r="F197" s="38"/>
-      <c r="G197" s="38"/>
-      <c r="H197" s="38"/>
-      <c r="I197" s="38"/>
-      <c r="J197" s="39"/>
+        <v>254</v>
+      </c>
+      <c r="D197" s="54"/>
+      <c r="E197" s="55"/>
+      <c r="F197" s="55"/>
+      <c r="G197" s="55"/>
+      <c r="H197" s="55"/>
+      <c r="I197" s="55"/>
+      <c r="J197" s="56"/>
     </row>
     <row r="198" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B198" s="28" t="s">
+      <c r="B198" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C198" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D198" s="29" t="s">
+      <c r="C198" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E198" s="29" t="s">
+      <c r="E198" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F198" s="29" t="s">
+      <c r="F198" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G198" s="29" t="s">
+      <c r="G198" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="H198" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="I198" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="J198" s="30" t="s">
+      <c r="H198" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="I198" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="J198" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B199" s="56" t="s">
+      <c r="B199" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="C199" s="48" t="s">
+      <c r="C199" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D199" s="48" t="s">
+      <c r="D199" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="E199" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="F199" s="48" t="s">
+      <c r="E199" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F199" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G199" s="48"/>
-      <c r="H199" s="48"/>
-      <c r="I199" s="48">
+      <c r="G199" s="35"/>
+      <c r="H199" s="35">
+        <v>8</v>
+      </c>
+      <c r="I199" s="35">
         <v>4</v>
       </c>
-      <c r="J199" s="50"/>
+      <c r="J199" s="37"/>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B200" s="57" t="s">
+      <c r="B200" s="42" t="s">
         <v>105</v>
       </c>
       <c r="C200" s="2" t="s">
@@ -4585,15 +5311,19 @@
       <c r="F200" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
+      <c r="G200" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H200" s="2">
+        <v>8</v>
+      </c>
       <c r="I200" s="2">
         <v>8</v>
       </c>
       <c r="J200" s="3"/>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B201" s="57" t="s">
+      <c r="B201" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C201" s="2" t="s">
@@ -4609,50 +5339,62 @@
         <v>34</v>
       </c>
       <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
+      <c r="H201" s="2">
+        <v>8</v>
+      </c>
       <c r="I201" s="2">
         <v>4</v>
       </c>
       <c r="J201" s="3"/>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B202" s="57" t="s">
+      <c r="B202" s="42" t="s">
         <v>37</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
+      <c r="D202" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
-      <c r="H202" s="2"/>
+      <c r="H202" s="2">
+        <v>8</v>
+      </c>
       <c r="I202" s="2">
         <v>4</v>
       </c>
       <c r="J202" s="3"/>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B203" s="57" t="s">
+      <c r="B203" s="42" t="s">
         <v>67</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D203" s="2"/>
+      <c r="D203" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="E203" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
+      <c r="H203" s="2">
+        <v>8</v>
+      </c>
       <c r="I203" s="2">
         <v>4</v>
       </c>
       <c r="J203" s="3"/>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B204" s="57" t="s">
+      <c r="B204" s="42" t="s">
         <v>77</v>
       </c>
       <c r="C204" s="2" t="s">
@@ -4664,41 +5406,53 @@
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
+      <c r="H204" s="2">
+        <v>10</v>
+      </c>
       <c r="I204" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J204" s="3"/>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B205" s="57" t="s">
+      <c r="B205" s="42" t="s">
         <v>83</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
+      <c r="E205" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
+      <c r="G205" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H205" s="2">
+        <v>3</v>
+      </c>
       <c r="I205" s="2">
         <v>3</v>
       </c>
       <c r="J205" s="3"/>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B206" s="57" t="s">
+      <c r="B206" s="42" t="s">
         <v>106</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
+      <c r="E206" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
-      <c r="H206" s="2"/>
+      <c r="H206" s="2">
+        <v>100</v>
+      </c>
       <c r="I206" s="2">
         <v>25</v>
       </c>
@@ -4707,41 +5461,53 @@
       </c>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B207" s="57" t="s">
+      <c r="B207" s="42" t="s">
         <v>107</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
+      <c r="E207" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F207" s="2"/>
-      <c r="G207" s="2"/>
-      <c r="H207" s="2"/>
+      <c r="G207" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H207" s="2">
+        <v>200</v>
+      </c>
       <c r="I207" s="2">
         <v>50</v>
       </c>
       <c r="J207" s="3"/>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B208" s="57" t="s">
+      <c r="B208" s="42" t="s">
         <v>78</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
+      <c r="E208" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F208" s="2"/>
-      <c r="G208" s="2"/>
-      <c r="H208" s="2"/>
+      <c r="G208" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H208" s="2">
+        <v>510</v>
+      </c>
       <c r="I208" s="2">
         <v>130</v>
       </c>
       <c r="J208" s="3"/>
     </row>
     <row r="209" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B209" s="58" t="s">
+      <c r="B209" s="43" t="s">
         <v>108</v>
       </c>
       <c r="C209" s="4" t="s">
@@ -4755,7 +5521,9 @@
       <c r="G209" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H209" s="4"/>
+      <c r="H209" s="4">
+        <v>8</v>
+      </c>
       <c r="I209" s="4">
         <v>16</v>
       </c>
